--- a/database/industries/shoyande/kimiatec/product/quarterly_seprated.xlsx
+++ b/database/industries/shoyande/kimiatec/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F955A4F7-0E7E-4FFB-97EE-F912F5F2CF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیاتک-آریان کیمیا تک</t>
@@ -36,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -49,6 +47,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -168,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,7 +362,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -373,7 +374,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -420,6 +421,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -455,6 +473,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -606,17 +641,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -626,7 +661,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -638,7 +673,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -650,7 +685,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -660,7 +695,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -672,7 +707,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -684,7 +719,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -694,7 +729,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -716,7 +751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -726,7 +761,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -738,7 +773,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -747,22 +782,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>2607776</v>
+        <v>3871858</v>
       </c>
       <c r="F11" s="11">
-        <v>3871858</v>
+        <v>3418548</v>
       </c>
       <c r="G11" s="11">
-        <v>3418548</v>
+        <v>3770043</v>
       </c>
       <c r="H11" s="11">
-        <v>3770043</v>
+        <v>4468158</v>
       </c>
       <c r="I11" s="11">
-        <v>4468158</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2754334</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
@@ -771,22 +806,22 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>10992703</v>
+        <v>7263818</v>
       </c>
       <c r="F12" s="13">
-        <v>7263818</v>
+        <v>10244085</v>
       </c>
       <c r="G12" s="13">
-        <v>10244085</v>
+        <v>9686422</v>
       </c>
       <c r="H12" s="13">
-        <v>9686422</v>
+        <v>9965786</v>
       </c>
       <c r="I12" s="13">
-        <v>9965786</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8470604</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
@@ -795,44 +830,44 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>2011023</v>
+        <v>2931618</v>
       </c>
       <c r="F13" s="11">
-        <v>2931618</v>
+        <v>2287842</v>
       </c>
       <c r="G13" s="11">
-        <v>2287842</v>
+        <v>3050914</v>
       </c>
       <c r="H13" s="11">
-        <v>3050914</v>
+        <v>1546715</v>
       </c>
       <c r="I13" s="11">
-        <v>1546715</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6480159</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>15611502</v>
+        <v>14067294</v>
       </c>
       <c r="F14" s="15">
-        <v>14067294</v>
+        <v>15950475</v>
       </c>
       <c r="G14" s="15">
-        <v>15950475</v>
+        <v>16507379</v>
       </c>
       <c r="H14" s="15">
-        <v>16507379</v>
+        <v>15980659</v>
       </c>
       <c r="I14" s="15">
-        <v>15980659</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17705097</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
@@ -844,7 +879,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
@@ -853,22 +888,22 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
-        <v>45552</v>
+        <v>97408</v>
       </c>
       <c r="F16" s="11">
-        <v>97408</v>
+        <v>108284</v>
       </c>
       <c r="G16" s="11">
-        <v>108284</v>
+        <v>77820</v>
       </c>
       <c r="H16" s="11">
-        <v>77820</v>
+        <v>41504</v>
       </c>
       <c r="I16" s="11">
-        <v>41504</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>167426</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
@@ -877,22 +912,22 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>52944</v>
+        <v>70932</v>
       </c>
       <c r="F17" s="13">
-        <v>70932</v>
+        <v>221976</v>
       </c>
       <c r="G17" s="13">
-        <v>221976</v>
+        <v>61512</v>
       </c>
       <c r="H17" s="13">
-        <v>61512</v>
+        <v>46656</v>
       </c>
       <c r="I17" s="13">
-        <v>46656</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>156278</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
@@ -901,44 +936,44 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
-        <v>8820</v>
+        <v>4201</v>
       </c>
       <c r="F18" s="11">
-        <v>4201</v>
+        <v>12203</v>
       </c>
       <c r="G18" s="11">
-        <v>12203</v>
+        <v>12768</v>
       </c>
       <c r="H18" s="11">
-        <v>12768</v>
+        <v>37524</v>
       </c>
       <c r="I18" s="11">
-        <v>37524</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36836</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>107316</v>
+        <v>172541</v>
       </c>
       <c r="F19" s="15">
-        <v>172541</v>
+        <v>342463</v>
       </c>
       <c r="G19" s="15">
-        <v>342463</v>
+        <v>152100</v>
       </c>
       <c r="H19" s="15">
-        <v>152100</v>
+        <v>125684</v>
       </c>
       <c r="I19" s="15">
-        <v>125684</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>360540</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
@@ -950,7 +985,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>19</v>
       </c>
@@ -972,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>20</v>
       </c>
@@ -996,7 +1031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>23</v>
       </c>
@@ -1018,29 +1053,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
-        <v>15718818</v>
+        <v>14239835</v>
       </c>
       <c r="F24" s="15">
-        <v>14239835</v>
+        <v>16292938</v>
       </c>
       <c r="G24" s="15">
-        <v>16292938</v>
+        <v>16659479</v>
       </c>
       <c r="H24" s="15">
-        <v>16659479</v>
+        <v>16106343</v>
       </c>
       <c r="I24" s="15">
-        <v>16106343</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18065637</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1050,7 +1085,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1060,7 +1095,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1070,7 +1105,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
@@ -1092,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1102,7 +1137,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
@@ -1114,7 +1149,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
@@ -1123,22 +1158,22 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>933418</v>
+        <v>1122623</v>
       </c>
       <c r="F31" s="11">
-        <v>1122623</v>
+        <v>1083489</v>
       </c>
       <c r="G31" s="11">
-        <v>1083489</v>
+        <v>1174519</v>
       </c>
       <c r="H31" s="11">
-        <v>1174519</v>
+        <v>2142192</v>
       </c>
       <c r="I31" s="11">
-        <v>2142192</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>221201</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>13</v>
       </c>
@@ -1147,22 +1182,22 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>2368866</v>
+        <v>1869381</v>
       </c>
       <c r="F32" s="13">
-        <v>1869381</v>
+        <v>2644902</v>
       </c>
       <c r="G32" s="13">
-        <v>2644902</v>
+        <v>2720123</v>
       </c>
       <c r="H32" s="13">
-        <v>2720123</v>
+        <v>3459766</v>
       </c>
       <c r="I32" s="13">
-        <v>3459766</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3069167</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>14</v>
       </c>
@@ -1171,44 +1206,44 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>955989</v>
+        <v>1324295</v>
       </c>
       <c r="F33" s="11">
-        <v>1324295</v>
+        <v>1369420</v>
       </c>
       <c r="G33" s="11">
-        <v>1369420</v>
+        <v>1686346</v>
       </c>
       <c r="H33" s="11">
-        <v>1686346</v>
+        <v>1005761</v>
       </c>
       <c r="I33" s="11">
-        <v>1005761</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3907289</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
-        <v>4258273</v>
+        <v>4316299</v>
       </c>
       <c r="F34" s="15">
-        <v>4316299</v>
+        <v>5097811</v>
       </c>
       <c r="G34" s="15">
-        <v>5097811</v>
+        <v>5580988</v>
       </c>
       <c r="H34" s="15">
-        <v>5580988</v>
+        <v>6607719</v>
       </c>
       <c r="I34" s="15">
-        <v>6607719</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7197657</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>28</v>
       </c>
@@ -1220,7 +1255,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>11</v>
       </c>
@@ -1229,22 +1264,22 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>9903</v>
+        <v>19834</v>
       </c>
       <c r="F36" s="11">
-        <v>19834</v>
+        <v>28055</v>
       </c>
       <c r="G36" s="11">
-        <v>28055</v>
+        <v>20384</v>
       </c>
       <c r="H36" s="11">
-        <v>20384</v>
+        <v>16631</v>
       </c>
       <c r="I36" s="11">
-        <v>16631</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>58690</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>13</v>
       </c>
@@ -1253,22 +1288,22 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>10076</v>
+        <v>13073</v>
       </c>
       <c r="F37" s="13">
-        <v>13073</v>
+        <v>52189</v>
       </c>
       <c r="G37" s="13">
-        <v>52189</v>
+        <v>13021</v>
       </c>
       <c r="H37" s="13">
-        <v>13021</v>
+        <v>10370</v>
       </c>
       <c r="I37" s="13">
-        <v>10370</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51495</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>14</v>
       </c>
@@ -1277,44 +1312,44 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>2218</v>
+        <v>4003</v>
       </c>
       <c r="F38" s="11">
-        <v>4003</v>
+        <v>8664</v>
       </c>
       <c r="G38" s="11">
-        <v>8664</v>
+        <v>5262</v>
       </c>
       <c r="H38" s="11">
-        <v>5262</v>
+        <v>9292</v>
       </c>
       <c r="I38" s="11">
-        <v>9292</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12531</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>22197</v>
+        <v>36910</v>
       </c>
       <c r="F39" s="15">
-        <v>36910</v>
+        <v>88908</v>
       </c>
       <c r="G39" s="15">
-        <v>88908</v>
+        <v>38667</v>
       </c>
       <c r="H39" s="15">
-        <v>38667</v>
+        <v>36293</v>
       </c>
       <c r="I39" s="15">
-        <v>36293</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>122716</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>29</v>
       </c>
@@ -1326,7 +1361,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>19</v>
       </c>
@@ -1348,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>20</v>
       </c>
@@ -1372,7 +1407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>23</v>
       </c>
@@ -1396,29 +1431,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>4280470</v>
+        <v>4353209</v>
       </c>
       <c r="F44" s="15">
-        <v>4353209</v>
+        <v>5186719</v>
       </c>
       <c r="G44" s="15">
-        <v>5186719</v>
+        <v>5619655</v>
       </c>
       <c r="H44" s="15">
-        <v>5619655</v>
+        <v>6644012</v>
       </c>
       <c r="I44" s="15">
-        <v>6644012</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7320373</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1428,7 +1463,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1438,7 +1473,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1448,7 +1483,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>30</v>
       </c>
@@ -1470,7 +1505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1480,7 +1515,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>31</v>
       </c>
@@ -1492,7 +1527,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>11</v>
       </c>
@@ -1501,22 +1536,22 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>357936</v>
+        <v>278091</v>
       </c>
       <c r="F51" s="11">
-        <v>278091</v>
+        <v>316944</v>
       </c>
       <c r="G51" s="11">
-        <v>316944</v>
+        <v>311540</v>
       </c>
       <c r="H51" s="11">
-        <v>311540</v>
+        <v>479435</v>
       </c>
       <c r="I51" s="11">
-        <v>479435</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>80310</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>13</v>
       </c>
@@ -1525,22 +1560,22 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>215494</v>
+        <v>289074</v>
       </c>
       <c r="F52" s="13">
-        <v>289074</v>
+        <v>258188</v>
       </c>
       <c r="G52" s="13">
-        <v>258188</v>
+        <v>280818</v>
       </c>
       <c r="H52" s="13">
-        <v>280818</v>
+        <v>347164</v>
       </c>
       <c r="I52" s="13">
-        <v>347164</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>362332</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>14</v>
       </c>
@@ -1549,22 +1584,22 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>475374</v>
+        <v>402615</v>
       </c>
       <c r="F53" s="11">
-        <v>402615</v>
+        <v>598564</v>
       </c>
       <c r="G53" s="11">
-        <v>598564</v>
+        <v>552735</v>
       </c>
       <c r="H53" s="11">
-        <v>552735</v>
+        <v>650256</v>
       </c>
       <c r="I53" s="11">
-        <v>650256</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>602962</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>33</v>
       </c>
@@ -1576,7 +1611,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1585,22 +1620,22 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>217400</v>
+        <v>203618</v>
       </c>
       <c r="F55" s="11">
-        <v>203618</v>
+        <v>259087</v>
       </c>
       <c r="G55" s="11">
-        <v>259087</v>
+        <v>261938</v>
       </c>
       <c r="H55" s="11">
-        <v>261938</v>
+        <v>400708</v>
       </c>
       <c r="I55" s="11">
-        <v>400708</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>350543</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>13</v>
       </c>
@@ -1609,22 +1644,22 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>190314</v>
+        <v>184303</v>
       </c>
       <c r="F56" s="13">
-        <v>184303</v>
+        <v>235111</v>
       </c>
       <c r="G56" s="13">
-        <v>235111</v>
+        <v>211682</v>
       </c>
       <c r="H56" s="13">
-        <v>211682</v>
+        <v>222265</v>
       </c>
       <c r="I56" s="13">
-        <v>222265</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>329509</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>14</v>
       </c>
@@ -1633,22 +1668,22 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>251474</v>
+        <v>952868</v>
       </c>
       <c r="F57" s="11">
-        <v>952868</v>
+        <v>709989</v>
       </c>
       <c r="G57" s="11">
-        <v>709989</v>
+        <v>412124</v>
       </c>
       <c r="H57" s="11">
-        <v>412124</v>
+        <v>247628</v>
       </c>
       <c r="I57" s="11">
-        <v>247628</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>340184</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1658,7 +1693,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1668,7 +1703,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1678,7 +1713,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>34</v>
       </c>
@@ -1700,7 +1735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1710,7 +1745,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>35</v>
       </c>
@@ -1722,7 +1757,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>11</v>
       </c>
@@ -1731,22 +1766,22 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>-441084</v>
+        <v>-425604</v>
       </c>
       <c r="F64" s="11">
-        <v>-425604</v>
+        <v>-631676</v>
       </c>
       <c r="G64" s="11">
-        <v>-631676</v>
+        <v>-564289</v>
       </c>
       <c r="H64" s="11">
-        <v>-564289</v>
+        <v>-977555</v>
       </c>
       <c r="I64" s="11">
-        <v>-977555</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-467019</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>13</v>
       </c>
@@ -1755,22 +1790,22 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>-1239628</v>
+        <v>-1204997</v>
       </c>
       <c r="F65" s="13">
-        <v>-1204997</v>
+        <v>-1774736</v>
       </c>
       <c r="G65" s="13">
-        <v>-1774736</v>
+        <v>-1610589</v>
       </c>
       <c r="H65" s="13">
-        <v>-1610589</v>
+        <v>-2107675</v>
       </c>
       <c r="I65" s="13">
-        <v>-2107675</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1549521</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>14</v>
       </c>
@@ -1779,44 +1814,44 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>-435649</v>
+        <v>-564926</v>
       </c>
       <c r="F66" s="11">
-        <v>-564926</v>
+        <v>-727251</v>
       </c>
       <c r="G66" s="11">
-        <v>-727251</v>
+        <v>-881201</v>
       </c>
       <c r="H66" s="11">
-        <v>-881201</v>
+        <v>-293936</v>
       </c>
       <c r="I66" s="11">
-        <v>-293936</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2110305</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>-2116361</v>
+        <v>-2195527</v>
       </c>
       <c r="F67" s="15">
-        <v>-2195527</v>
+        <v>-3133663</v>
       </c>
       <c r="G67" s="15">
-        <v>-3133663</v>
+        <v>-3056079</v>
       </c>
       <c r="H67" s="15">
-        <v>-3056079</v>
+        <v>-3379166</v>
       </c>
       <c r="I67" s="15">
-        <v>-3379166</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4126845</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>37</v>
       </c>
@@ -1828,7 +1863,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>11</v>
       </c>
@@ -1837,22 +1872,22 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>432</v>
+        <v>-7808</v>
       </c>
       <c r="F69" s="11">
-        <v>-7808</v>
+        <v>-15057</v>
       </c>
       <c r="G69" s="11">
-        <v>-15057</v>
+        <v>-11192</v>
       </c>
       <c r="H69" s="11">
-        <v>-11192</v>
+        <v>-11140</v>
       </c>
       <c r="I69" s="11">
-        <v>-11140</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-32140</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>13</v>
       </c>
@@ -1861,22 +1896,22 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
-        <v>-7891</v>
+        <v>-7549</v>
       </c>
       <c r="F70" s="13">
-        <v>-7549</v>
+        <v>-32443</v>
       </c>
       <c r="G70" s="13">
-        <v>-32443</v>
+        <v>-7540</v>
       </c>
       <c r="H70" s="13">
-        <v>-7540</v>
+        <v>-12925</v>
       </c>
       <c r="I70" s="13">
-        <v>-12925</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-22553</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>14</v>
       </c>
@@ -1885,44 +1920,44 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>-1442</v>
+        <v>-2002</v>
       </c>
       <c r="F71" s="11">
-        <v>-2002</v>
+        <v>-4606</v>
       </c>
       <c r="G71" s="11">
-        <v>-4606</v>
+        <v>-2712</v>
       </c>
       <c r="H71" s="11">
-        <v>-2712</v>
+        <v>-10142</v>
       </c>
       <c r="I71" s="11">
-        <v>-10142</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-672</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
-        <v>-8901</v>
+        <v>-17359</v>
       </c>
       <c r="F72" s="15">
-        <v>-17359</v>
+        <v>-52106</v>
       </c>
       <c r="G72" s="15">
-        <v>-52106</v>
+        <v>-21444</v>
       </c>
       <c r="H72" s="15">
-        <v>-21444</v>
+        <v>-34207</v>
       </c>
       <c r="I72" s="15">
-        <v>-34207</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-55365</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>39</v>
       </c>
@@ -1934,7 +1969,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
         <v>40</v>
       </c>
@@ -1956,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>20</v>
       </c>
@@ -1980,7 +2015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>23</v>
       </c>
@@ -2004,29 +2039,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
-        <v>-2125262</v>
+        <v>-2212886</v>
       </c>
       <c r="F77" s="15">
-        <v>-2212886</v>
+        <v>-3185769</v>
       </c>
       <c r="G77" s="15">
-        <v>-3185769</v>
+        <v>-3077523</v>
       </c>
       <c r="H77" s="15">
-        <v>-3077523</v>
+        <v>-3413373</v>
       </c>
       <c r="I77" s="15">
-        <v>-3413373</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4182210</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2036,7 +2071,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2046,7 +2081,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2056,7 +2091,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>41</v>
       </c>
@@ -2078,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2088,7 +2123,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>42</v>
       </c>
@@ -2100,7 +2135,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>11</v>
       </c>
@@ -2109,22 +2144,22 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>492334</v>
+        <v>651125</v>
       </c>
       <c r="F84" s="11">
-        <v>651125</v>
+        <v>451813</v>
       </c>
       <c r="G84" s="11">
-        <v>451813</v>
+        <v>610230</v>
       </c>
       <c r="H84" s="11">
-        <v>610230</v>
+        <v>1164637</v>
       </c>
       <c r="I84" s="11">
-        <v>1164637</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-245818</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>13</v>
       </c>
@@ -2133,22 +2168,22 @@
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
-        <v>1129238</v>
+        <v>894784</v>
       </c>
       <c r="F85" s="13">
-        <v>894784</v>
+        <v>870166</v>
       </c>
       <c r="G85" s="13">
-        <v>870166</v>
+        <v>1109534</v>
       </c>
       <c r="H85" s="13">
-        <v>1109534</v>
+        <v>1352091</v>
       </c>
       <c r="I85" s="13">
-        <v>1352091</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1519646</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>14</v>
       </c>
@@ -2157,44 +2192,44 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>520340</v>
+        <v>574863</v>
       </c>
       <c r="F86" s="11">
-        <v>574863</v>
+        <v>642169</v>
       </c>
       <c r="G86" s="11">
-        <v>642169</v>
+        <v>805145</v>
       </c>
       <c r="H86" s="11">
-        <v>805145</v>
+        <v>711825</v>
       </c>
       <c r="I86" s="11">
-        <v>711825</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1796984</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>2141912</v>
+        <v>2120772</v>
       </c>
       <c r="F87" s="15">
-        <v>2120772</v>
+        <v>1964148</v>
       </c>
       <c r="G87" s="15">
-        <v>1964148</v>
+        <v>2524909</v>
       </c>
       <c r="H87" s="15">
-        <v>2524909</v>
+        <v>3228553</v>
       </c>
       <c r="I87" s="15">
-        <v>3228553</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3070812</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>44</v>
       </c>
@@ -2206,7 +2241,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>11</v>
       </c>
@@ -2215,22 +2250,22 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>10335</v>
+        <v>12026</v>
       </c>
       <c r="F89" s="11">
-        <v>12026</v>
+        <v>12998</v>
       </c>
       <c r="G89" s="11">
-        <v>12998</v>
+        <v>9192</v>
       </c>
       <c r="H89" s="11">
-        <v>9192</v>
+        <v>5491</v>
       </c>
       <c r="I89" s="11">
-        <v>5491</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26550</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>13</v>
       </c>
@@ -2239,22 +2274,22 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>2185</v>
+        <v>5524</v>
       </c>
       <c r="F90" s="13">
-        <v>5524</v>
+        <v>19746</v>
       </c>
       <c r="G90" s="13">
-        <v>19746</v>
+        <v>5481</v>
       </c>
       <c r="H90" s="13">
-        <v>5481</v>
+        <v>-2555</v>
       </c>
       <c r="I90" s="13">
-        <v>-2555</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28942</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>14</v>
       </c>
@@ -2263,44 +2298,44 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>776</v>
+        <v>2001</v>
       </c>
       <c r="F91" s="11">
-        <v>2001</v>
+        <v>4058</v>
       </c>
       <c r="G91" s="11">
-        <v>4058</v>
+        <v>2550</v>
       </c>
       <c r="H91" s="11">
-        <v>2550</v>
+        <v>-850</v>
       </c>
       <c r="I91" s="11">
-        <v>-850</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11859</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>13296</v>
+        <v>19551</v>
       </c>
       <c r="F92" s="15">
-        <v>19551</v>
+        <v>36802</v>
       </c>
       <c r="G92" s="15">
-        <v>36802</v>
+        <v>17223</v>
       </c>
       <c r="H92" s="15">
-        <v>17223</v>
+        <v>2086</v>
       </c>
       <c r="I92" s="15">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>67351</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="16" t="s">
         <v>46</v>
       </c>
@@ -2312,7 +2347,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="18" t="s">
         <v>47</v>
       </c>
@@ -2334,26 +2369,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>2155208</v>
+        <v>2140323</v>
       </c>
       <c r="F95" s="15">
-        <v>2140323</v>
+        <v>2000950</v>
       </c>
       <c r="G95" s="15">
-        <v>2000950</v>
+        <v>2542132</v>
       </c>
       <c r="H95" s="15">
-        <v>2542132</v>
+        <v>3230639</v>
       </c>
       <c r="I95" s="15">
-        <v>3230639</v>
+        <v>3138163</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/kimiatec/product/quarterly_seprated.xlsx
+++ b/database/industries/shoyande/kimiatec/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\kimiatec\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F955A4F7-0E7E-4FFB-97EE-F912F5F2CF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395F192C-5D96-4BF8-880E-93883634F4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -642,16 +657,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I95"/>
+  <dimension ref="B1:N95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -660,8 +675,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,8 +692,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -684,8 +709,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -694,8 +724,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,8 +741,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -718,8 +758,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -728,8 +773,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -750,8 +800,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -760,10 +825,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -772,104 +842,169 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>3888148</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3480512</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3833790</v>
+      </c>
+      <c r="H11" s="11">
+        <v>3393747</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2607776</v>
+      </c>
+      <c r="J11" s="11">
         <v>3871858</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>3418548</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>3770043</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>4468158</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>2754334</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>10485311</v>
+      </c>
+      <c r="F12" s="13">
+        <v>7965790</v>
+      </c>
+      <c r="G12" s="13">
+        <v>9547458</v>
+      </c>
+      <c r="H12" s="13">
+        <v>6764064</v>
+      </c>
+      <c r="I12" s="13">
+        <v>10992703</v>
+      </c>
+      <c r="J12" s="13">
         <v>7263818</v>
       </c>
-      <c r="F12" s="13">
+      <c r="K12" s="13">
         <v>10244085</v>
       </c>
-      <c r="G12" s="13">
+      <c r="L12" s="13">
         <v>9686422</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>9965786</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>8470604</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>1976930</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1539269</v>
+      </c>
+      <c r="G13" s="11">
+        <v>3204305</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1951055</v>
+      </c>
+      <c r="I13" s="11">
+        <v>2011023</v>
+      </c>
+      <c r="J13" s="11">
         <v>2931618</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>2287842</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>3050914</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>1546715</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>6480159</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
+        <v>16350389</v>
+      </c>
+      <c r="F14" s="15">
+        <v>12985571</v>
+      </c>
+      <c r="G14" s="15">
+        <v>16585553</v>
+      </c>
+      <c r="H14" s="15">
+        <v>12108866</v>
+      </c>
+      <c r="I14" s="15">
+        <v>15611502</v>
+      </c>
+      <c r="J14" s="15">
         <v>14067294</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>15950475</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>16507379</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>15980659</v>
       </c>
-      <c r="I14" s="15">
+      <c r="N14" s="15">
         <v>17705097</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -878,104 +1013,169 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
+        <v>76932</v>
+      </c>
+      <c r="F16" s="11">
+        <v>94200</v>
+      </c>
+      <c r="G16" s="11">
+        <v>68388</v>
+      </c>
+      <c r="H16" s="11">
+        <v>109728</v>
+      </c>
+      <c r="I16" s="11">
+        <v>45552</v>
+      </c>
+      <c r="J16" s="11">
         <v>97408</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>108284</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>77820</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>41504</v>
       </c>
-      <c r="I16" s="11">
+      <c r="N16" s="11">
         <v>167426</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
+        <v>101788</v>
+      </c>
+      <c r="F17" s="13">
+        <v>148392</v>
+      </c>
+      <c r="G17" s="13">
+        <v>110192</v>
+      </c>
+      <c r="H17" s="13">
+        <v>140676</v>
+      </c>
+      <c r="I17" s="13">
+        <v>52944</v>
+      </c>
+      <c r="J17" s="13">
         <v>70932</v>
       </c>
-      <c r="F17" s="13">
+      <c r="K17" s="13">
         <v>221976</v>
       </c>
-      <c r="G17" s="13">
+      <c r="L17" s="13">
         <v>61512</v>
       </c>
-      <c r="H17" s="13">
+      <c r="M17" s="13">
         <v>46656</v>
       </c>
-      <c r="I17" s="13">
+      <c r="N17" s="13">
         <v>156278</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
+        <v>18147</v>
+      </c>
+      <c r="F18" s="11">
+        <v>37115</v>
+      </c>
+      <c r="G18" s="11">
+        <v>21617</v>
+      </c>
+      <c r="H18" s="11">
+        <v>22619</v>
+      </c>
+      <c r="I18" s="11">
+        <v>8820</v>
+      </c>
+      <c r="J18" s="11">
         <v>4201</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>12203</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>12768</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>37524</v>
       </c>
-      <c r="I18" s="11">
+      <c r="N18" s="11">
         <v>36836</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
+        <v>196867</v>
+      </c>
+      <c r="F19" s="15">
+        <v>279707</v>
+      </c>
+      <c r="G19" s="15">
+        <v>200197</v>
+      </c>
+      <c r="H19" s="15">
+        <v>273023</v>
+      </c>
+      <c r="I19" s="15">
+        <v>107316</v>
+      </c>
+      <c r="J19" s="15">
         <v>172541</v>
       </c>
-      <c r="F19" s="15">
+      <c r="K19" s="15">
         <v>342463</v>
       </c>
-      <c r="G19" s="15">
+      <c r="L19" s="15">
         <v>152100</v>
       </c>
-      <c r="H19" s="15">
+      <c r="M19" s="15">
         <v>125684</v>
       </c>
-      <c r="I19" s="15">
+      <c r="N19" s="15">
         <v>360540</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -984,10 +1184,15 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -1006,34 +1211,64 @@
       <c r="I21" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>22</v>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -1043,39 +1278,69 @@
       <c r="F23" s="19">
         <v>0</v>
       </c>
-      <c r="G23" s="19">
-        <v>0</v>
-      </c>
-      <c r="H23" s="19">
-        <v>0</v>
+      <c r="G23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="I23" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="19">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0</v>
+      </c>
+      <c r="L23" s="19">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19">
+        <v>0</v>
+      </c>
+      <c r="N23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
+        <v>16547256</v>
+      </c>
+      <c r="F24" s="15">
+        <v>13265278</v>
+      </c>
+      <c r="G24" s="15">
+        <v>16785750</v>
+      </c>
+      <c r="H24" s="15">
+        <v>12381889</v>
+      </c>
+      <c r="I24" s="15">
+        <v>15718818</v>
+      </c>
+      <c r="J24" s="15">
         <v>14239835</v>
       </c>
-      <c r="F24" s="15">
+      <c r="K24" s="15">
         <v>16292938</v>
       </c>
-      <c r="G24" s="15">
+      <c r="L24" s="15">
         <v>16659479</v>
       </c>
-      <c r="H24" s="15">
+      <c r="M24" s="15">
         <v>16106343</v>
       </c>
-      <c r="I24" s="15">
+      <c r="N24" s="15">
         <v>18065637</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1084,8 +1349,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1094,8 +1364,13 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1104,10 +1379,15 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1126,8 +1406,23 @@
       <c r="I28" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1136,10 +1431,15 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1148,104 +1448,169 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
+        <v>854227</v>
+      </c>
+      <c r="F31" s="11">
+        <v>806603</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1068638</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1037922</v>
+      </c>
+      <c r="I31" s="11">
+        <v>933418</v>
+      </c>
+      <c r="J31" s="11">
         <v>1122623</v>
       </c>
-      <c r="F31" s="11">
+      <c r="K31" s="11">
         <v>1083489</v>
       </c>
-      <c r="G31" s="11">
+      <c r="L31" s="11">
         <v>1174519</v>
       </c>
-      <c r="H31" s="11">
+      <c r="M31" s="11">
         <v>2142192</v>
       </c>
-      <c r="I31" s="11">
+      <c r="N31" s="11">
         <v>221201</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
+        <v>1655258</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1689913</v>
+      </c>
+      <c r="G32" s="13">
+        <v>2273494</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1555308</v>
+      </c>
+      <c r="I32" s="13">
+        <v>2368866</v>
+      </c>
+      <c r="J32" s="13">
         <v>1869381</v>
       </c>
-      <c r="F32" s="13">
+      <c r="K32" s="13">
         <v>2644902</v>
       </c>
-      <c r="G32" s="13">
+      <c r="L32" s="13">
         <v>2720123</v>
       </c>
-      <c r="H32" s="13">
+      <c r="M32" s="13">
         <v>3459766</v>
       </c>
-      <c r="I32" s="13">
+      <c r="N32" s="13">
         <v>3069167</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
+        <v>566862</v>
+      </c>
+      <c r="F33" s="11">
+        <v>577895</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1014867</v>
+      </c>
+      <c r="H33" s="11">
+        <v>742950</v>
+      </c>
+      <c r="I33" s="11">
+        <v>955989</v>
+      </c>
+      <c r="J33" s="11">
         <v>1324295</v>
       </c>
-      <c r="F33" s="11">
+      <c r="K33" s="11">
         <v>1369420</v>
       </c>
-      <c r="G33" s="11">
+      <c r="L33" s="11">
         <v>1686346</v>
       </c>
-      <c r="H33" s="11">
+      <c r="M33" s="11">
         <v>1005761</v>
       </c>
-      <c r="I33" s="11">
+      <c r="N33" s="11">
         <v>3907289</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
+        <v>3076347</v>
+      </c>
+      <c r="F34" s="15">
+        <v>3074411</v>
+      </c>
+      <c r="G34" s="15">
+        <v>4356999</v>
+      </c>
+      <c r="H34" s="15">
+        <v>3336180</v>
+      </c>
+      <c r="I34" s="15">
+        <v>4258273</v>
+      </c>
+      <c r="J34" s="15">
         <v>4316299</v>
       </c>
-      <c r="F34" s="15">
+      <c r="K34" s="15">
         <v>5097811</v>
       </c>
-      <c r="G34" s="15">
+      <c r="L34" s="15">
         <v>5580988</v>
       </c>
-      <c r="H34" s="15">
+      <c r="M34" s="15">
         <v>6607719</v>
       </c>
-      <c r="I34" s="15">
+      <c r="N34" s="15">
         <v>7197657</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1254,104 +1619,169 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>15175</v>
+      </c>
+      <c r="F36" s="11">
+        <v>17988</v>
+      </c>
+      <c r="G36" s="11">
+        <v>12257</v>
+      </c>
+      <c r="H36" s="11">
+        <v>22470</v>
+      </c>
+      <c r="I36" s="11">
+        <v>9903</v>
+      </c>
+      <c r="J36" s="11">
         <v>19834</v>
       </c>
-      <c r="F36" s="11">
+      <c r="K36" s="11">
         <v>28055</v>
       </c>
-      <c r="G36" s="11">
+      <c r="L36" s="11">
         <v>20384</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>16631</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>58690</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
+        <v>16166</v>
+      </c>
+      <c r="F37" s="13">
+        <v>31934</v>
+      </c>
+      <c r="G37" s="13">
+        <v>19377</v>
+      </c>
+      <c r="H37" s="13">
+        <v>25843</v>
+      </c>
+      <c r="I37" s="13">
+        <v>10076</v>
+      </c>
+      <c r="J37" s="13">
         <v>13073</v>
       </c>
-      <c r="F37" s="13">
+      <c r="K37" s="13">
         <v>52189</v>
       </c>
-      <c r="G37" s="13">
+      <c r="L37" s="13">
         <v>13021</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>10370</v>
       </c>
-      <c r="I37" s="13">
+      <c r="N37" s="13">
         <v>51495</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>4296</v>
+      </c>
+      <c r="F38" s="11">
+        <v>7568</v>
+      </c>
+      <c r="G38" s="11">
+        <v>6505</v>
+      </c>
+      <c r="H38" s="11">
+        <v>5218</v>
+      </c>
+      <c r="I38" s="11">
+        <v>2218</v>
+      </c>
+      <c r="J38" s="11">
         <v>4003</v>
       </c>
-      <c r="F38" s="11">
+      <c r="K38" s="11">
         <v>8664</v>
       </c>
-      <c r="G38" s="11">
+      <c r="L38" s="11">
         <v>5262</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>9292</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>12531</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
+        <v>35637</v>
+      </c>
+      <c r="F39" s="15">
+        <v>57490</v>
+      </c>
+      <c r="G39" s="15">
+        <v>38139</v>
+      </c>
+      <c r="H39" s="15">
+        <v>53531</v>
+      </c>
+      <c r="I39" s="15">
+        <v>22197</v>
+      </c>
+      <c r="J39" s="15">
         <v>36910</v>
       </c>
-      <c r="F39" s="15">
+      <c r="K39" s="15">
         <v>88908</v>
       </c>
-      <c r="G39" s="15">
+      <c r="L39" s="15">
         <v>38667</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>36293</v>
       </c>
-      <c r="I39" s="15">
+      <c r="N39" s="15">
         <v>122716</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -1360,10 +1790,15 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -1382,37 +1817,67 @@
       <c r="I41" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="19">
+        <v>0</v>
+      </c>
+      <c r="K41" s="19">
+        <v>0</v>
+      </c>
+      <c r="L41" s="19">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19">
+        <v>0</v>
+      </c>
+      <c r="N41" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0</v>
+      </c>
+      <c r="G42" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="H42" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="19">
@@ -1421,39 +1886,69 @@
       <c r="F43" s="19">
         <v>0</v>
       </c>
-      <c r="G43" s="19">
-        <v>0</v>
-      </c>
-      <c r="H43" s="19">
-        <v>0</v>
+      <c r="G43" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="I43" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="19">
+        <v>0</v>
+      </c>
+      <c r="K43" s="19">
+        <v>0</v>
+      </c>
+      <c r="L43" s="19">
+        <v>0</v>
+      </c>
+      <c r="M43" s="19">
+        <v>0</v>
+      </c>
+      <c r="N43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
+        <v>3111984</v>
+      </c>
+      <c r="F44" s="15">
+        <v>3131901</v>
+      </c>
+      <c r="G44" s="15">
+        <v>4395138</v>
+      </c>
+      <c r="H44" s="15">
+        <v>3389711</v>
+      </c>
+      <c r="I44" s="15">
+        <v>4280470</v>
+      </c>
+      <c r="J44" s="15">
         <v>4353209</v>
       </c>
-      <c r="F44" s="15">
+      <c r="K44" s="15">
         <v>5186719</v>
       </c>
-      <c r="G44" s="15">
+      <c r="L44" s="15">
         <v>5619655</v>
       </c>
-      <c r="H44" s="15">
+      <c r="M44" s="15">
         <v>6644012</v>
       </c>
-      <c r="I44" s="15">
+      <c r="N44" s="15">
         <v>7320373</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1462,8 +1957,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1472,8 +1972,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1482,10 +1987,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1504,8 +2014,23 @@
       <c r="I48" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1514,10 +2039,15 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -1526,82 +2056,132 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
+        <v>219700</v>
+      </c>
+      <c r="F51" s="11">
+        <v>231748</v>
+      </c>
+      <c r="G51" s="11">
+        <v>278716</v>
+      </c>
+      <c r="H51" s="11">
+        <v>305834</v>
+      </c>
+      <c r="I51" s="11">
+        <v>357936</v>
+      </c>
+      <c r="J51" s="11">
         <v>278091</v>
       </c>
-      <c r="F51" s="11">
+      <c r="K51" s="11">
         <v>316944</v>
       </c>
-      <c r="G51" s="11">
+      <c r="L51" s="11">
         <v>311540</v>
       </c>
-      <c r="H51" s="11">
+      <c r="M51" s="11">
         <v>479435</v>
       </c>
-      <c r="I51" s="11">
+      <c r="N51" s="11">
         <v>80310</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
+        <v>157864</v>
+      </c>
+      <c r="F52" s="13">
+        <v>212146</v>
+      </c>
+      <c r="G52" s="13">
+        <v>238866</v>
+      </c>
+      <c r="H52" s="13">
+        <v>229937</v>
+      </c>
+      <c r="I52" s="13">
+        <v>215494</v>
+      </c>
+      <c r="J52" s="13">
         <v>289074</v>
       </c>
-      <c r="F52" s="13">
+      <c r="K52" s="13">
         <v>258188</v>
       </c>
-      <c r="G52" s="13">
+      <c r="L52" s="13">
         <v>280818</v>
       </c>
-      <c r="H52" s="13">
+      <c r="M52" s="13">
         <v>347164</v>
       </c>
-      <c r="I52" s="13">
+      <c r="N52" s="13">
         <v>362332</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
+        <v>286739</v>
+      </c>
+      <c r="F53" s="11">
+        <v>375435</v>
+      </c>
+      <c r="G53" s="11">
+        <v>316515</v>
+      </c>
+      <c r="H53" s="11">
+        <v>380794</v>
+      </c>
+      <c r="I53" s="11">
+        <v>475374</v>
+      </c>
+      <c r="J53" s="11">
         <v>402615</v>
       </c>
-      <c r="F53" s="11">
+      <c r="K53" s="11">
         <v>598564</v>
       </c>
-      <c r="G53" s="11">
+      <c r="L53" s="11">
         <v>552735</v>
       </c>
-      <c r="H53" s="11">
+      <c r="M53" s="11">
         <v>650256</v>
       </c>
-      <c r="I53" s="11">
+      <c r="N53" s="11">
         <v>602962</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -1610,80 +2190,130 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
+        <v>197252</v>
+      </c>
+      <c r="F55" s="11">
+        <v>190955</v>
+      </c>
+      <c r="G55" s="11">
+        <v>206911</v>
+      </c>
+      <c r="H55" s="11">
+        <v>204779</v>
+      </c>
+      <c r="I55" s="11">
+        <v>217400</v>
+      </c>
+      <c r="J55" s="11">
         <v>203618</v>
       </c>
-      <c r="F55" s="11">
+      <c r="K55" s="11">
         <v>259087</v>
       </c>
-      <c r="G55" s="11">
+      <c r="L55" s="11">
         <v>261938</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>400708</v>
       </c>
-      <c r="I55" s="11">
+      <c r="N55" s="11">
         <v>350543</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>158820</v>
+      </c>
+      <c r="F56" s="13">
+        <v>215200</v>
+      </c>
+      <c r="G56" s="13">
+        <v>111714</v>
+      </c>
+      <c r="H56" s="13">
+        <v>183706</v>
+      </c>
+      <c r="I56" s="13">
+        <v>190314</v>
+      </c>
+      <c r="J56" s="13">
         <v>184303</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>235111</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>211682</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>222265</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>329509</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
+        <v>236733</v>
+      </c>
+      <c r="F57" s="11">
+        <v>203907</v>
+      </c>
+      <c r="G57" s="11">
+        <v>332822</v>
+      </c>
+      <c r="H57" s="11">
+        <v>230691</v>
+      </c>
+      <c r="I57" s="11">
+        <v>251474</v>
+      </c>
+      <c r="J57" s="11">
         <v>952868</v>
       </c>
-      <c r="F57" s="11">
+      <c r="K57" s="11">
         <v>709989</v>
       </c>
-      <c r="G57" s="11">
+      <c r="L57" s="11">
         <v>412124</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>247628</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N57" s="11">
         <v>340184</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1692,8 +2322,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1702,8 +2337,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1712,10 +2352,15 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1734,8 +2379,23 @@
       <c r="I61" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1744,10 +2404,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -1756,104 +2421,169 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>-361297</v>
+      </c>
+      <c r="F64" s="11">
+        <v>-265730</v>
+      </c>
+      <c r="G64" s="11">
+        <v>-600664</v>
+      </c>
+      <c r="H64" s="11">
+        <v>-378723</v>
+      </c>
+      <c r="I64" s="11">
+        <v>-441084</v>
+      </c>
+      <c r="J64" s="11">
         <v>-425604</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>-631676</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>-564289</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>-977555</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>-467019</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
+        <v>-849569</v>
+      </c>
+      <c r="F65" s="13">
+        <v>-755740</v>
+      </c>
+      <c r="G65" s="13">
+        <v>-1524857</v>
+      </c>
+      <c r="H65" s="13">
+        <v>-864550</v>
+      </c>
+      <c r="I65" s="13">
+        <v>-1239628</v>
+      </c>
+      <c r="J65" s="13">
         <v>-1204997</v>
       </c>
-      <c r="F65" s="13">
+      <c r="K65" s="13">
         <v>-1774736</v>
       </c>
-      <c r="G65" s="13">
+      <c r="L65" s="13">
         <v>-1610589</v>
       </c>
-      <c r="H65" s="13">
+      <c r="M65" s="13">
         <v>-2107675</v>
       </c>
-      <c r="I65" s="13">
+      <c r="N65" s="13">
         <v>-1549521</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>-232124</v>
+      </c>
+      <c r="F66" s="11">
+        <v>-239397</v>
+      </c>
+      <c r="G66" s="11">
+        <v>-569997</v>
+      </c>
+      <c r="H66" s="11">
+        <v>-413789</v>
+      </c>
+      <c r="I66" s="11">
+        <v>-435649</v>
+      </c>
+      <c r="J66" s="11">
         <v>-564926</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>-727251</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>-881201</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>-293936</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>-2110305</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
+        <v>-1442990</v>
+      </c>
+      <c r="F67" s="15">
+        <v>-1260867</v>
+      </c>
+      <c r="G67" s="15">
+        <v>-2695518</v>
+      </c>
+      <c r="H67" s="15">
+        <v>-1657062</v>
+      </c>
+      <c r="I67" s="15">
+        <v>-2116361</v>
+      </c>
+      <c r="J67" s="15">
         <v>-2195527</v>
       </c>
-      <c r="F67" s="15">
+      <c r="K67" s="15">
         <v>-3133663</v>
       </c>
-      <c r="G67" s="15">
+      <c r="L67" s="15">
         <v>-3056079</v>
       </c>
-      <c r="H67" s="15">
+      <c r="M67" s="15">
         <v>-3379166</v>
       </c>
-      <c r="I67" s="15">
+      <c r="N67" s="15">
         <v>-4126845</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -1862,104 +2592,169 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
+        <v>-6470</v>
+      </c>
+      <c r="F69" s="11">
+        <v>-7416</v>
+      </c>
+      <c r="G69" s="11">
+        <v>-10421</v>
+      </c>
+      <c r="H69" s="11">
+        <v>-14029</v>
+      </c>
+      <c r="I69" s="11">
+        <v>432</v>
+      </c>
+      <c r="J69" s="11">
         <v>-7808</v>
       </c>
-      <c r="F69" s="11">
+      <c r="K69" s="11">
         <v>-15057</v>
       </c>
-      <c r="G69" s="11">
+      <c r="L69" s="11">
         <v>-11192</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>-11140</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>-32140</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
+        <v>-9175</v>
+      </c>
+      <c r="F70" s="13">
+        <v>-15408</v>
+      </c>
+      <c r="G70" s="13">
+        <v>-8730</v>
+      </c>
+      <c r="H70" s="13">
+        <v>-11506</v>
+      </c>
+      <c r="I70" s="13">
+        <v>-7891</v>
+      </c>
+      <c r="J70" s="13">
         <v>-7549</v>
       </c>
-      <c r="F70" s="13">
+      <c r="K70" s="13">
         <v>-32443</v>
       </c>
-      <c r="G70" s="13">
+      <c r="L70" s="13">
         <v>-7540</v>
       </c>
-      <c r="H70" s="13">
+      <c r="M70" s="13">
         <v>-12925</v>
       </c>
-      <c r="I70" s="13">
+      <c r="N70" s="13">
         <v>-22553</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
+        <v>-1901</v>
+      </c>
+      <c r="F71" s="11">
+        <v>-3108</v>
+      </c>
+      <c r="G71" s="11">
+        <v>-5407</v>
+      </c>
+      <c r="H71" s="11">
+        <v>-2276</v>
+      </c>
+      <c r="I71" s="11">
+        <v>-1442</v>
+      </c>
+      <c r="J71" s="11">
         <v>-2002</v>
       </c>
-      <c r="F71" s="11">
+      <c r="K71" s="11">
         <v>-4606</v>
       </c>
-      <c r="G71" s="11">
+      <c r="L71" s="11">
         <v>-2712</v>
       </c>
-      <c r="H71" s="11">
+      <c r="M71" s="11">
         <v>-10142</v>
       </c>
-      <c r="I71" s="11">
+      <c r="N71" s="11">
         <v>-672</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
+        <v>-17546</v>
+      </c>
+      <c r="F72" s="15">
+        <v>-25932</v>
+      </c>
+      <c r="G72" s="15">
+        <v>-24558</v>
+      </c>
+      <c r="H72" s="15">
+        <v>-27811</v>
+      </c>
+      <c r="I72" s="15">
+        <v>-8901</v>
+      </c>
+      <c r="J72" s="15">
         <v>-17359</v>
       </c>
-      <c r="F72" s="15">
+      <c r="K72" s="15">
         <v>-52106</v>
       </c>
-      <c r="G72" s="15">
+      <c r="L72" s="15">
         <v>-21444</v>
       </c>
-      <c r="H72" s="15">
+      <c r="M72" s="15">
         <v>-34207</v>
       </c>
-      <c r="I72" s="15">
+      <c r="N72" s="15">
         <v>-55365</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -1968,10 +2763,15 @@
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
@@ -1990,37 +2790,67 @@
       <c r="I74" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="19">
+        <v>0</v>
+      </c>
+      <c r="K74" s="19">
+        <v>0</v>
+      </c>
+      <c r="L74" s="19">
+        <v>0</v>
+      </c>
+      <c r="M74" s="19">
+        <v>0</v>
+      </c>
+      <c r="N74" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C75" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15">
+        <v>0</v>
+      </c>
+      <c r="F75" s="15">
+        <v>0</v>
+      </c>
+      <c r="G75" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="H75" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L75" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N75" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19">
@@ -2029,39 +2859,69 @@
       <c r="F76" s="19">
         <v>0</v>
       </c>
-      <c r="G76" s="19">
-        <v>0</v>
-      </c>
-      <c r="H76" s="19">
-        <v>0</v>
+      <c r="G76" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="I76" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="19">
+        <v>0</v>
+      </c>
+      <c r="K76" s="19">
+        <v>0</v>
+      </c>
+      <c r="L76" s="19">
+        <v>0</v>
+      </c>
+      <c r="M76" s="19">
+        <v>0</v>
+      </c>
+      <c r="N76" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
+        <v>-1460536</v>
+      </c>
+      <c r="F77" s="15">
+        <v>-1286799</v>
+      </c>
+      <c r="G77" s="15">
+        <v>-2720076</v>
+      </c>
+      <c r="H77" s="15">
+        <v>-1684873</v>
+      </c>
+      <c r="I77" s="15">
+        <v>-2125262</v>
+      </c>
+      <c r="J77" s="15">
         <v>-2212886</v>
       </c>
-      <c r="F77" s="15">
+      <c r="K77" s="15">
         <v>-3185769</v>
       </c>
-      <c r="G77" s="15">
+      <c r="L77" s="15">
         <v>-3077523</v>
       </c>
-      <c r="H77" s="15">
+      <c r="M77" s="15">
         <v>-3413373</v>
       </c>
-      <c r="I77" s="15">
+      <c r="N77" s="15">
         <v>-4182210</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2070,8 +2930,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2080,8 +2945,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2090,10 +2960,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2112,8 +2987,23 @@
       <c r="I81" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2122,10 +3012,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -2134,104 +3029,169 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>492930</v>
+      </c>
+      <c r="F84" s="11">
+        <v>540873</v>
+      </c>
+      <c r="G84" s="11">
+        <v>460907</v>
+      </c>
+      <c r="H84" s="11">
+        <v>659199</v>
+      </c>
+      <c r="I84" s="11">
+        <v>492334</v>
+      </c>
+      <c r="J84" s="11">
         <v>651125</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>451813</v>
       </c>
-      <c r="G84" s="11">
+      <c r="L84" s="11">
         <v>610230</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>1164637</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>-245818</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
+        <v>805689</v>
+      </c>
+      <c r="F85" s="13">
+        <v>934173</v>
+      </c>
+      <c r="G85" s="13">
+        <v>755705</v>
+      </c>
+      <c r="H85" s="13">
+        <v>690758</v>
+      </c>
+      <c r="I85" s="13">
+        <v>1129238</v>
+      </c>
+      <c r="J85" s="13">
         <v>894784</v>
       </c>
-      <c r="F85" s="13">
+      <c r="K85" s="13">
         <v>870166</v>
       </c>
-      <c r="G85" s="13">
+      <c r="L85" s="13">
         <v>1109534</v>
       </c>
-      <c r="H85" s="13">
+      <c r="M85" s="13">
         <v>1352091</v>
       </c>
-      <c r="I85" s="13">
+      <c r="N85" s="13">
         <v>1519646</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>334738</v>
+      </c>
+      <c r="F86" s="11">
+        <v>338498</v>
+      </c>
+      <c r="G86" s="11">
+        <v>444869</v>
+      </c>
+      <c r="H86" s="11">
+        <v>329161</v>
+      </c>
+      <c r="I86" s="11">
+        <v>520340</v>
+      </c>
+      <c r="J86" s="11">
         <v>574863</v>
       </c>
-      <c r="F86" s="11">
+      <c r="K86" s="11">
         <v>642169</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>805145</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>711825</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>1796984</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
+        <v>1633357</v>
+      </c>
+      <c r="F87" s="15">
+        <v>1813544</v>
+      </c>
+      <c r="G87" s="15">
+        <v>1661481</v>
+      </c>
+      <c r="H87" s="15">
+        <v>1679118</v>
+      </c>
+      <c r="I87" s="15">
+        <v>2141912</v>
+      </c>
+      <c r="J87" s="15">
         <v>2120772</v>
       </c>
-      <c r="F87" s="15">
+      <c r="K87" s="15">
         <v>1964148</v>
       </c>
-      <c r="G87" s="15">
+      <c r="L87" s="15">
         <v>2524909</v>
       </c>
-      <c r="H87" s="15">
+      <c r="M87" s="15">
         <v>3228553</v>
       </c>
-      <c r="I87" s="15">
+      <c r="N87" s="15">
         <v>3070812</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -2240,104 +3200,169 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
+        <v>8705</v>
+      </c>
+      <c r="F89" s="11">
+        <v>10572</v>
+      </c>
+      <c r="G89" s="11">
+        <v>8902</v>
+      </c>
+      <c r="H89" s="11">
+        <v>8441</v>
+      </c>
+      <c r="I89" s="11">
+        <v>10335</v>
+      </c>
+      <c r="J89" s="11">
         <v>12026</v>
       </c>
-      <c r="F89" s="11">
+      <c r="K89" s="11">
         <v>12998</v>
       </c>
-      <c r="G89" s="11">
+      <c r="L89" s="11">
         <v>9192</v>
       </c>
-      <c r="H89" s="11">
+      <c r="M89" s="11">
         <v>5491</v>
       </c>
-      <c r="I89" s="11">
+      <c r="N89" s="11">
         <v>26550</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
+        <v>6991</v>
+      </c>
+      <c r="F90" s="13">
+        <v>16526</v>
+      </c>
+      <c r="G90" s="13">
+        <v>3580</v>
+      </c>
+      <c r="H90" s="13">
+        <v>14337</v>
+      </c>
+      <c r="I90" s="13">
+        <v>2185</v>
+      </c>
+      <c r="J90" s="13">
         <v>5524</v>
       </c>
-      <c r="F90" s="13">
+      <c r="K90" s="13">
         <v>19746</v>
       </c>
-      <c r="G90" s="13">
+      <c r="L90" s="13">
         <v>5481</v>
       </c>
-      <c r="H90" s="13">
+      <c r="M90" s="13">
         <v>-2555</v>
       </c>
-      <c r="I90" s="13">
+      <c r="N90" s="13">
         <v>28942</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
+        <v>2395</v>
+      </c>
+      <c r="F91" s="11">
+        <v>4460</v>
+      </c>
+      <c r="G91" s="11">
+        <v>1099</v>
+      </c>
+      <c r="H91" s="11">
+        <v>2942</v>
+      </c>
+      <c r="I91" s="11">
+        <v>776</v>
+      </c>
+      <c r="J91" s="11">
         <v>2001</v>
       </c>
-      <c r="F91" s="11">
+      <c r="K91" s="11">
         <v>4058</v>
       </c>
-      <c r="G91" s="11">
+      <c r="L91" s="11">
         <v>2550</v>
       </c>
-      <c r="H91" s="11">
+      <c r="M91" s="11">
         <v>-850</v>
       </c>
-      <c r="I91" s="11">
+      <c r="N91" s="11">
         <v>11859</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
+        <v>18091</v>
+      </c>
+      <c r="F92" s="15">
+        <v>31558</v>
+      </c>
+      <c r="G92" s="15">
+        <v>13581</v>
+      </c>
+      <c r="H92" s="15">
+        <v>25720</v>
+      </c>
+      <c r="I92" s="15">
+        <v>13296</v>
+      </c>
+      <c r="J92" s="15">
         <v>19551</v>
       </c>
-      <c r="F92" s="15">
+      <c r="K92" s="15">
         <v>36802</v>
       </c>
-      <c r="G92" s="15">
+      <c r="L92" s="15">
         <v>17223</v>
       </c>
-      <c r="H92" s="15">
+      <c r="M92" s="15">
         <v>2086</v>
       </c>
-      <c r="I92" s="15">
+      <c r="N92" s="15">
         <v>67351</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -2346,10 +3371,15 @@
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
@@ -2368,26 +3398,56 @@
       <c r="I94" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="19">
+        <v>0</v>
+      </c>
+      <c r="K94" s="19">
+        <v>0</v>
+      </c>
+      <c r="L94" s="19">
+        <v>0</v>
+      </c>
+      <c r="M94" s="19">
+        <v>0</v>
+      </c>
+      <c r="N94" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>1651448</v>
+      </c>
+      <c r="F95" s="15">
+        <v>1845102</v>
+      </c>
+      <c r="G95" s="15">
+        <v>1675062</v>
+      </c>
+      <c r="H95" s="15">
+        <v>1704838</v>
+      </c>
+      <c r="I95" s="15">
+        <v>2155208</v>
+      </c>
+      <c r="J95" s="15">
         <v>2140323</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>2000950</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>2542132</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>3230639</v>
       </c>
-      <c r="I95" s="15">
+      <c r="N95" s="15">
         <v>3138163</v>
       </c>
     </row>

--- a/database/industries/shoyande/kimiatec/product/quarterly_seprated.xlsx
+++ b/database/industries/shoyande/kimiatec/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395F192C-5D96-4BF8-880E-93883634F4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260432A3-A6D8-435F-9D44-7043B79F2594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -661,12 +661,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -681,7 +681,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -715,7 +715,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -730,7 +730,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -779,7 +779,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -816,7 +816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -831,7 +831,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -857,37 +857,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>3888148</v>
+        <v>3480512</v>
       </c>
       <c r="F11" s="11">
-        <v>3480512</v>
+        <v>3833790</v>
       </c>
       <c r="G11" s="11">
-        <v>3833790</v>
+        <v>3393747</v>
       </c>
       <c r="H11" s="11">
-        <v>3393747</v>
+        <v>2607776</v>
       </c>
       <c r="I11" s="11">
-        <v>2607776</v>
+        <v>3871858</v>
       </c>
       <c r="J11" s="11">
-        <v>3871858</v>
+        <v>3418548</v>
       </c>
       <c r="K11" s="11">
-        <v>3418548</v>
+        <v>3770043</v>
       </c>
       <c r="L11" s="11">
-        <v>3770043</v>
+        <v>4468158</v>
       </c>
       <c r="M11" s="11">
-        <v>4468158</v>
+        <v>2754334</v>
       </c>
       <c r="N11" s="11">
-        <v>2754334</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4398914</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -896,37 +896,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>10485311</v>
+        <v>7965790</v>
       </c>
       <c r="F12" s="13">
-        <v>7965790</v>
+        <v>9547458</v>
       </c>
       <c r="G12" s="13">
-        <v>9547458</v>
+        <v>6764064</v>
       </c>
       <c r="H12" s="13">
-        <v>6764064</v>
+        <v>10992703</v>
       </c>
       <c r="I12" s="13">
-        <v>10992703</v>
+        <v>7263818</v>
       </c>
       <c r="J12" s="13">
-        <v>7263818</v>
+        <v>10244085</v>
       </c>
       <c r="K12" s="13">
-        <v>10244085</v>
+        <v>9686422</v>
       </c>
       <c r="L12" s="13">
-        <v>9686422</v>
+        <v>9965786</v>
       </c>
       <c r="M12" s="13">
-        <v>9965786</v>
+        <v>8470604</v>
       </c>
       <c r="N12" s="13">
-        <v>8470604</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9180887</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -935,74 +935,74 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>1976930</v>
+        <v>1539269</v>
       </c>
       <c r="F13" s="11">
-        <v>1539269</v>
+        <v>3204305</v>
       </c>
       <c r="G13" s="11">
-        <v>3204305</v>
+        <v>1951055</v>
       </c>
       <c r="H13" s="11">
-        <v>1951055</v>
+        <v>2011023</v>
       </c>
       <c r="I13" s="11">
-        <v>2011023</v>
+        <v>2931618</v>
       </c>
       <c r="J13" s="11">
-        <v>2931618</v>
+        <v>2287842</v>
       </c>
       <c r="K13" s="11">
-        <v>2287842</v>
+        <v>3050914</v>
       </c>
       <c r="L13" s="11">
-        <v>3050914</v>
+        <v>1546715</v>
       </c>
       <c r="M13" s="11">
-        <v>1546715</v>
+        <v>6480159</v>
       </c>
       <c r="N13" s="11">
-        <v>6480159</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3226290</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>16350389</v>
+        <v>12985571</v>
       </c>
       <c r="F14" s="15">
-        <v>12985571</v>
+        <v>16585553</v>
       </c>
       <c r="G14" s="15">
-        <v>16585553</v>
+        <v>12108866</v>
       </c>
       <c r="H14" s="15">
-        <v>12108866</v>
+        <v>15611502</v>
       </c>
       <c r="I14" s="15">
-        <v>15611502</v>
+        <v>14067294</v>
       </c>
       <c r="J14" s="15">
-        <v>14067294</v>
+        <v>15950475</v>
       </c>
       <c r="K14" s="15">
-        <v>15950475</v>
+        <v>16507379</v>
       </c>
       <c r="L14" s="15">
-        <v>16507379</v>
+        <v>15980659</v>
       </c>
       <c r="M14" s="15">
-        <v>15980659</v>
+        <v>17705097</v>
       </c>
       <c r="N14" s="15">
-        <v>17705097</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16806091</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1028,37 +1028,37 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
-        <v>76932</v>
+        <v>94200</v>
       </c>
       <c r="F16" s="11">
-        <v>94200</v>
+        <v>68388</v>
       </c>
       <c r="G16" s="11">
-        <v>68388</v>
+        <v>109728</v>
       </c>
       <c r="H16" s="11">
-        <v>109728</v>
+        <v>45552</v>
       </c>
       <c r="I16" s="11">
-        <v>45552</v>
+        <v>97408</v>
       </c>
       <c r="J16" s="11">
-        <v>97408</v>
+        <v>108284</v>
       </c>
       <c r="K16" s="11">
-        <v>108284</v>
+        <v>77820</v>
       </c>
       <c r="L16" s="11">
-        <v>77820</v>
+        <v>41504</v>
       </c>
       <c r="M16" s="11">
-        <v>41504</v>
+        <v>167426</v>
       </c>
       <c r="N16" s="11">
-        <v>167426</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>86856</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
@@ -1067,37 +1067,37 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>101788</v>
+        <v>148392</v>
       </c>
       <c r="F17" s="13">
-        <v>148392</v>
+        <v>110192</v>
       </c>
       <c r="G17" s="13">
-        <v>110192</v>
+        <v>140676</v>
       </c>
       <c r="H17" s="13">
-        <v>140676</v>
+        <v>52944</v>
       </c>
       <c r="I17" s="13">
-        <v>52944</v>
+        <v>70932</v>
       </c>
       <c r="J17" s="13">
-        <v>70932</v>
+        <v>221976</v>
       </c>
       <c r="K17" s="13">
-        <v>221976</v>
+        <v>61512</v>
       </c>
       <c r="L17" s="13">
-        <v>61512</v>
+        <v>46656</v>
       </c>
       <c r="M17" s="13">
-        <v>46656</v>
+        <v>156278</v>
       </c>
       <c r="N17" s="13">
-        <v>156278</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40384</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1106,74 +1106,74 @@
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
-        <v>18147</v>
+        <v>37115</v>
       </c>
       <c r="F18" s="11">
-        <v>37115</v>
+        <v>21617</v>
       </c>
       <c r="G18" s="11">
-        <v>21617</v>
+        <v>22619</v>
       </c>
       <c r="H18" s="11">
-        <v>22619</v>
+        <v>8820</v>
       </c>
       <c r="I18" s="11">
-        <v>8820</v>
+        <v>4201</v>
       </c>
       <c r="J18" s="11">
-        <v>4201</v>
+        <v>12203</v>
       </c>
       <c r="K18" s="11">
-        <v>12203</v>
+        <v>12768</v>
       </c>
       <c r="L18" s="11">
-        <v>12768</v>
+        <v>37524</v>
       </c>
       <c r="M18" s="11">
-        <v>37524</v>
+        <v>36836</v>
       </c>
       <c r="N18" s="11">
-        <v>36836</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>196867</v>
+        <v>279707</v>
       </c>
       <c r="F19" s="15">
-        <v>279707</v>
+        <v>200197</v>
       </c>
       <c r="G19" s="15">
-        <v>200197</v>
+        <v>273023</v>
       </c>
       <c r="H19" s="15">
-        <v>273023</v>
+        <v>107316</v>
       </c>
       <c r="I19" s="15">
-        <v>107316</v>
+        <v>172541</v>
       </c>
       <c r="J19" s="15">
-        <v>172541</v>
+        <v>342463</v>
       </c>
       <c r="K19" s="15">
-        <v>342463</v>
+        <v>152100</v>
       </c>
       <c r="L19" s="15">
-        <v>152100</v>
+        <v>125684</v>
       </c>
       <c r="M19" s="15">
-        <v>125684</v>
+        <v>360540</v>
       </c>
       <c r="N19" s="15">
-        <v>360540</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>127240</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>23</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>24</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>25</v>
       </c>
@@ -1238,8 +1238,8 @@
       <c r="E22" s="15">
         <v>0</v>
       </c>
-      <c r="F22" s="15">
-        <v>0</v>
+      <c r="F22" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>27</v>
@@ -1266,7 +1266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>28</v>
       </c>
@@ -1275,14 +1275,14 @@
       <c r="E23" s="19">
         <v>0</v>
       </c>
-      <c r="F23" s="19">
-        <v>0</v>
+      <c r="F23" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>27</v>
+      <c r="H23" s="19">
+        <v>0</v>
       </c>
       <c r="I23" s="19">
         <v>0</v>
@@ -1303,44 +1303,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
-        <v>16547256</v>
+        <v>13265278</v>
       </c>
       <c r="F24" s="15">
-        <v>13265278</v>
+        <v>16785750</v>
       </c>
       <c r="G24" s="15">
-        <v>16785750</v>
+        <v>12381889</v>
       </c>
       <c r="H24" s="15">
-        <v>12381889</v>
+        <v>15718818</v>
       </c>
       <c r="I24" s="15">
-        <v>15718818</v>
+        <v>14239835</v>
       </c>
       <c r="J24" s="15">
-        <v>14239835</v>
+        <v>16292938</v>
       </c>
       <c r="K24" s="15">
-        <v>16292938</v>
+        <v>16659479</v>
       </c>
       <c r="L24" s="15">
-        <v>16659479</v>
+        <v>16106343</v>
       </c>
       <c r="M24" s="15">
-        <v>16106343</v>
+        <v>18065637</v>
       </c>
       <c r="N24" s="15">
-        <v>18065637</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16933331</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1355,7 +1355,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1370,7 +1370,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1385,7 +1385,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>30</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1437,7 +1437,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>31</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1463,37 +1463,37 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>854227</v>
+        <v>806603</v>
       </c>
       <c r="F31" s="11">
-        <v>806603</v>
+        <v>1068638</v>
       </c>
       <c r="G31" s="11">
-        <v>1068638</v>
+        <v>1037922</v>
       </c>
       <c r="H31" s="11">
-        <v>1037922</v>
+        <v>933418</v>
       </c>
       <c r="I31" s="11">
-        <v>933418</v>
+        <v>1122623</v>
       </c>
       <c r="J31" s="11">
-        <v>1122623</v>
+        <v>1083489</v>
       </c>
       <c r="K31" s="11">
-        <v>1083489</v>
+        <v>1174519</v>
       </c>
       <c r="L31" s="11">
-        <v>1174519</v>
+        <v>2142192</v>
       </c>
       <c r="M31" s="11">
-        <v>2142192</v>
+        <v>221201</v>
       </c>
       <c r="N31" s="11">
-        <v>221201</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1401949</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>18</v>
       </c>
@@ -1502,37 +1502,37 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>1655258</v>
+        <v>1689913</v>
       </c>
       <c r="F32" s="13">
-        <v>1689913</v>
+        <v>2273494</v>
       </c>
       <c r="G32" s="13">
-        <v>2273494</v>
+        <v>1555308</v>
       </c>
       <c r="H32" s="13">
-        <v>1555308</v>
+        <v>2368866</v>
       </c>
       <c r="I32" s="13">
-        <v>2368866</v>
+        <v>1869381</v>
       </c>
       <c r="J32" s="13">
-        <v>1869381</v>
+        <v>2644902</v>
       </c>
       <c r="K32" s="13">
-        <v>2644902</v>
+        <v>2720123</v>
       </c>
       <c r="L32" s="13">
-        <v>2720123</v>
+        <v>3459766</v>
       </c>
       <c r="M32" s="13">
-        <v>3459766</v>
+        <v>3069167</v>
       </c>
       <c r="N32" s="13">
-        <v>3069167</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4546164</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>19</v>
       </c>
@@ -1541,74 +1541,74 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>566862</v>
+        <v>577895</v>
       </c>
       <c r="F33" s="11">
-        <v>577895</v>
+        <v>1014867</v>
       </c>
       <c r="G33" s="11">
-        <v>1014867</v>
+        <v>742950</v>
       </c>
       <c r="H33" s="11">
-        <v>742950</v>
+        <v>955989</v>
       </c>
       <c r="I33" s="11">
-        <v>955989</v>
+        <v>1324295</v>
       </c>
       <c r="J33" s="11">
-        <v>1324295</v>
+        <v>1369420</v>
       </c>
       <c r="K33" s="11">
-        <v>1369420</v>
+        <v>1686346</v>
       </c>
       <c r="L33" s="11">
-        <v>1686346</v>
+        <v>1005761</v>
       </c>
       <c r="M33" s="11">
-        <v>1005761</v>
+        <v>3907289</v>
       </c>
       <c r="N33" s="11">
-        <v>3907289</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1667080</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
-        <v>3076347</v>
+        <v>3074411</v>
       </c>
       <c r="F34" s="15">
-        <v>3074411</v>
+        <v>4356999</v>
       </c>
       <c r="G34" s="15">
-        <v>4356999</v>
+        <v>3336180</v>
       </c>
       <c r="H34" s="15">
-        <v>3336180</v>
+        <v>4258273</v>
       </c>
       <c r="I34" s="15">
-        <v>4258273</v>
+        <v>4316299</v>
       </c>
       <c r="J34" s="15">
-        <v>4316299</v>
+        <v>5097811</v>
       </c>
       <c r="K34" s="15">
-        <v>5097811</v>
+        <v>5580988</v>
       </c>
       <c r="L34" s="15">
-        <v>5580988</v>
+        <v>6607719</v>
       </c>
       <c r="M34" s="15">
-        <v>6607719</v>
+        <v>7197657</v>
       </c>
       <c r="N34" s="15">
-        <v>7197657</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7615193</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>16</v>
       </c>
@@ -1634,37 +1634,37 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>15175</v>
+        <v>17988</v>
       </c>
       <c r="F36" s="11">
-        <v>17988</v>
+        <v>12257</v>
       </c>
       <c r="G36" s="11">
-        <v>12257</v>
+        <v>22470</v>
       </c>
       <c r="H36" s="11">
-        <v>22470</v>
+        <v>9903</v>
       </c>
       <c r="I36" s="11">
-        <v>9903</v>
+        <v>19834</v>
       </c>
       <c r="J36" s="11">
-        <v>19834</v>
+        <v>28055</v>
       </c>
       <c r="K36" s="11">
-        <v>28055</v>
+        <v>20384</v>
       </c>
       <c r="L36" s="11">
-        <v>20384</v>
+        <v>16631</v>
       </c>
       <c r="M36" s="11">
-        <v>16631</v>
+        <v>58690</v>
       </c>
       <c r="N36" s="11">
-        <v>58690</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38940</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>18</v>
       </c>
@@ -1673,37 +1673,37 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>16166</v>
+        <v>31934</v>
       </c>
       <c r="F37" s="13">
-        <v>31934</v>
+        <v>19377</v>
       </c>
       <c r="G37" s="13">
-        <v>19377</v>
+        <v>25843</v>
       </c>
       <c r="H37" s="13">
-        <v>25843</v>
+        <v>10076</v>
       </c>
       <c r="I37" s="13">
-        <v>10076</v>
+        <v>13073</v>
       </c>
       <c r="J37" s="13">
-        <v>13073</v>
+        <v>52189</v>
       </c>
       <c r="K37" s="13">
-        <v>52189</v>
+        <v>13021</v>
       </c>
       <c r="L37" s="13">
-        <v>13021</v>
+        <v>10370</v>
       </c>
       <c r="M37" s="13">
-        <v>10370</v>
+        <v>51495</v>
       </c>
       <c r="N37" s="13">
-        <v>51495</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22554</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>19</v>
       </c>
@@ -1712,74 +1712,74 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>4296</v>
+        <v>7568</v>
       </c>
       <c r="F38" s="11">
-        <v>7568</v>
+        <v>6505</v>
       </c>
       <c r="G38" s="11">
-        <v>6505</v>
+        <v>5218</v>
       </c>
       <c r="H38" s="11">
-        <v>5218</v>
+        <v>2218</v>
       </c>
       <c r="I38" s="11">
-        <v>2218</v>
+        <v>4003</v>
       </c>
       <c r="J38" s="11">
-        <v>4003</v>
+        <v>8664</v>
       </c>
       <c r="K38" s="11">
-        <v>8664</v>
+        <v>5262</v>
       </c>
       <c r="L38" s="11">
-        <v>5262</v>
+        <v>9292</v>
       </c>
       <c r="M38" s="11">
-        <v>9292</v>
+        <v>12531</v>
       </c>
       <c r="N38" s="11">
-        <v>12531</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>35637</v>
+        <v>57490</v>
       </c>
       <c r="F39" s="15">
-        <v>57490</v>
+        <v>38139</v>
       </c>
       <c r="G39" s="15">
-        <v>38139</v>
+        <v>53531</v>
       </c>
       <c r="H39" s="15">
-        <v>53531</v>
+        <v>22197</v>
       </c>
       <c r="I39" s="15">
-        <v>22197</v>
+        <v>36910</v>
       </c>
       <c r="J39" s="15">
-        <v>36910</v>
+        <v>88908</v>
       </c>
       <c r="K39" s="15">
-        <v>88908</v>
+        <v>38667</v>
       </c>
       <c r="L39" s="15">
-        <v>38667</v>
+        <v>36293</v>
       </c>
       <c r="M39" s="15">
-        <v>36293</v>
+        <v>122716</v>
       </c>
       <c r="N39" s="15">
-        <v>122716</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>61494</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>34</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>24</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>25</v>
       </c>
@@ -1844,8 +1844,8 @@
       <c r="E42" s="15">
         <v>0</v>
       </c>
-      <c r="F42" s="15">
-        <v>0</v>
+      <c r="F42" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>27</v>
@@ -1872,7 +1872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>28</v>
       </c>
@@ -1883,14 +1883,14 @@
       <c r="E43" s="19">
         <v>0</v>
       </c>
-      <c r="F43" s="19">
-        <v>0</v>
+      <c r="F43" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="19" t="s">
-        <v>27</v>
+      <c r="H43" s="19">
+        <v>0</v>
       </c>
       <c r="I43" s="19">
         <v>0</v>
@@ -1911,44 +1911,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>3111984</v>
+        <v>3131901</v>
       </c>
       <c r="F44" s="15">
-        <v>3131901</v>
+        <v>4395138</v>
       </c>
       <c r="G44" s="15">
-        <v>4395138</v>
+        <v>3389711</v>
       </c>
       <c r="H44" s="15">
-        <v>3389711</v>
+        <v>4280470</v>
       </c>
       <c r="I44" s="15">
-        <v>4280470</v>
+        <v>4353209</v>
       </c>
       <c r="J44" s="15">
-        <v>4353209</v>
+        <v>5186719</v>
       </c>
       <c r="K44" s="15">
-        <v>5186719</v>
+        <v>5619655</v>
       </c>
       <c r="L44" s="15">
-        <v>5619655</v>
+        <v>6644012</v>
       </c>
       <c r="M44" s="15">
-        <v>6644012</v>
+        <v>7320373</v>
       </c>
       <c r="N44" s="15">
-        <v>7320373</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7676687</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1963,7 +1963,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1978,7 +1978,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1993,7 +1993,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>35</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2045,7 +2045,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>36</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>16</v>
       </c>
@@ -2071,37 +2071,37 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>219700</v>
+        <v>231748</v>
       </c>
       <c r="F51" s="11">
-        <v>231748</v>
+        <v>278716</v>
       </c>
       <c r="G51" s="11">
-        <v>278716</v>
+        <v>305834</v>
       </c>
       <c r="H51" s="11">
-        <v>305834</v>
+        <v>357936</v>
       </c>
       <c r="I51" s="11">
-        <v>357936</v>
+        <v>278091</v>
       </c>
       <c r="J51" s="11">
-        <v>278091</v>
+        <v>316944</v>
       </c>
       <c r="K51" s="11">
-        <v>316944</v>
+        <v>311540</v>
       </c>
       <c r="L51" s="11">
-        <v>311540</v>
+        <v>479435</v>
       </c>
       <c r="M51" s="11">
-        <v>479435</v>
+        <v>80310</v>
       </c>
       <c r="N51" s="11">
-        <v>80310</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>318703</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>18</v>
       </c>
@@ -2110,37 +2110,37 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>157864</v>
+        <v>212146</v>
       </c>
       <c r="F52" s="13">
-        <v>212146</v>
+        <v>238866</v>
       </c>
       <c r="G52" s="13">
-        <v>238866</v>
+        <v>229937</v>
       </c>
       <c r="H52" s="13">
-        <v>229937</v>
+        <v>215494</v>
       </c>
       <c r="I52" s="13">
-        <v>215494</v>
+        <v>289074</v>
       </c>
       <c r="J52" s="13">
-        <v>289074</v>
+        <v>258188</v>
       </c>
       <c r="K52" s="13">
-        <v>258188</v>
+        <v>280818</v>
       </c>
       <c r="L52" s="13">
-        <v>280818</v>
+        <v>347164</v>
       </c>
       <c r="M52" s="13">
-        <v>347164</v>
+        <v>362332</v>
       </c>
       <c r="N52" s="13">
-        <v>362332</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>495177</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>19</v>
       </c>
@@ -2149,37 +2149,37 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>286739</v>
+        <v>375435</v>
       </c>
       <c r="F53" s="11">
-        <v>375435</v>
+        <v>316515</v>
       </c>
       <c r="G53" s="11">
-        <v>316515</v>
+        <v>380794</v>
       </c>
       <c r="H53" s="11">
-        <v>380794</v>
+        <v>475374</v>
       </c>
       <c r="I53" s="11">
-        <v>475374</v>
+        <v>402615</v>
       </c>
       <c r="J53" s="11">
-        <v>402615</v>
+        <v>598564</v>
       </c>
       <c r="K53" s="11">
-        <v>598564</v>
+        <v>552735</v>
       </c>
       <c r="L53" s="11">
-        <v>552735</v>
+        <v>650256</v>
       </c>
       <c r="M53" s="11">
-        <v>650256</v>
+        <v>602962</v>
       </c>
       <c r="N53" s="11">
-        <v>602962</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>516717</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>38</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
@@ -2205,37 +2205,37 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>197252</v>
+        <v>190955</v>
       </c>
       <c r="F55" s="11">
-        <v>190955</v>
+        <v>206911</v>
       </c>
       <c r="G55" s="11">
-        <v>206911</v>
+        <v>204779</v>
       </c>
       <c r="H55" s="11">
-        <v>204779</v>
+        <v>217400</v>
       </c>
       <c r="I55" s="11">
-        <v>217400</v>
+        <v>203618</v>
       </c>
       <c r="J55" s="11">
-        <v>203618</v>
+        <v>259087</v>
       </c>
       <c r="K55" s="11">
-        <v>259087</v>
+        <v>261938</v>
       </c>
       <c r="L55" s="11">
-        <v>261938</v>
+        <v>400708</v>
       </c>
       <c r="M55" s="11">
-        <v>400708</v>
+        <v>350543</v>
       </c>
       <c r="N55" s="11">
-        <v>350543</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>448328</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>18</v>
       </c>
@@ -2244,37 +2244,37 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>158820</v>
+        <v>215200</v>
       </c>
       <c r="F56" s="13">
-        <v>215200</v>
+        <v>111714</v>
       </c>
       <c r="G56" s="13">
-        <v>111714</v>
+        <v>183706</v>
       </c>
       <c r="H56" s="13">
-        <v>183706</v>
+        <v>190314</v>
       </c>
       <c r="I56" s="13">
-        <v>190314</v>
+        <v>184303</v>
       </c>
       <c r="J56" s="13">
-        <v>184303</v>
+        <v>235111</v>
       </c>
       <c r="K56" s="13">
-        <v>235111</v>
+        <v>211682</v>
       </c>
       <c r="L56" s="13">
-        <v>211682</v>
+        <v>222265</v>
       </c>
       <c r="M56" s="13">
-        <v>222265</v>
+        <v>329509</v>
       </c>
       <c r="N56" s="13">
-        <v>329509</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>558489</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>19</v>
       </c>
@@ -2283,37 +2283,37 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>236733</v>
+        <v>203907</v>
       </c>
       <c r="F57" s="11">
-        <v>203907</v>
+        <v>332822</v>
       </c>
       <c r="G57" s="11">
-        <v>332822</v>
+        <v>230691</v>
       </c>
       <c r="H57" s="11">
-        <v>230691</v>
+        <v>251474</v>
       </c>
       <c r="I57" s="11">
-        <v>251474</v>
+        <v>952868</v>
       </c>
       <c r="J57" s="11">
-        <v>952868</v>
+        <v>709989</v>
       </c>
       <c r="K57" s="11">
-        <v>709989</v>
+        <v>412124</v>
       </c>
       <c r="L57" s="11">
-        <v>412124</v>
+        <v>247628</v>
       </c>
       <c r="M57" s="11">
-        <v>247628</v>
-      </c>
-      <c r="N57" s="11">
         <v>340184</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N57" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2328,7 +2328,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2343,7 +2343,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2358,7 +2358,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>39</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2410,7 +2410,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>40</v>
       </c>
@@ -2427,7 +2427,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>16</v>
       </c>
@@ -2436,37 +2436,37 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>-361297</v>
+        <v>-265730</v>
       </c>
       <c r="F64" s="11">
-        <v>-265730</v>
+        <v>-600664</v>
       </c>
       <c r="G64" s="11">
-        <v>-600664</v>
+        <v>-378723</v>
       </c>
       <c r="H64" s="11">
-        <v>-378723</v>
+        <v>-441084</v>
       </c>
       <c r="I64" s="11">
-        <v>-441084</v>
+        <v>-425604</v>
       </c>
       <c r="J64" s="11">
-        <v>-425604</v>
+        <v>-631676</v>
       </c>
       <c r="K64" s="11">
-        <v>-631676</v>
+        <v>-564289</v>
       </c>
       <c r="L64" s="11">
-        <v>-564289</v>
+        <v>-977555</v>
       </c>
       <c r="M64" s="11">
-        <v>-977555</v>
+        <v>-467019</v>
       </c>
       <c r="N64" s="11">
-        <v>-467019</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-902010</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>18</v>
       </c>
@@ -2475,37 +2475,37 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>-849569</v>
+        <v>-755740</v>
       </c>
       <c r="F65" s="13">
-        <v>-755740</v>
+        <v>-1524857</v>
       </c>
       <c r="G65" s="13">
-        <v>-1524857</v>
+        <v>-864550</v>
       </c>
       <c r="H65" s="13">
-        <v>-864550</v>
+        <v>-1239628</v>
       </c>
       <c r="I65" s="13">
-        <v>-1239628</v>
+        <v>-1204997</v>
       </c>
       <c r="J65" s="13">
-        <v>-1204997</v>
+        <v>-1774736</v>
       </c>
       <c r="K65" s="13">
-        <v>-1774736</v>
+        <v>-1610589</v>
       </c>
       <c r="L65" s="13">
-        <v>-1610589</v>
+        <v>-2107675</v>
       </c>
       <c r="M65" s="13">
-        <v>-2107675</v>
+        <v>-1549521</v>
       </c>
       <c r="N65" s="13">
-        <v>-1549521</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3147945</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>19</v>
       </c>
@@ -2514,74 +2514,74 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>-232124</v>
+        <v>-239397</v>
       </c>
       <c r="F66" s="11">
-        <v>-239397</v>
+        <v>-569997</v>
       </c>
       <c r="G66" s="11">
-        <v>-569997</v>
+        <v>-413789</v>
       </c>
       <c r="H66" s="11">
-        <v>-413789</v>
+        <v>-435649</v>
       </c>
       <c r="I66" s="11">
-        <v>-435649</v>
+        <v>-564926</v>
       </c>
       <c r="J66" s="11">
-        <v>-564926</v>
+        <v>-727251</v>
       </c>
       <c r="K66" s="11">
-        <v>-727251</v>
+        <v>-881201</v>
       </c>
       <c r="L66" s="11">
-        <v>-881201</v>
+        <v>-293936</v>
       </c>
       <c r="M66" s="11">
-        <v>-293936</v>
+        <v>-2110305</v>
       </c>
       <c r="N66" s="11">
-        <v>-2110305</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-401097</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>-1442990</v>
+        <v>-1260867</v>
       </c>
       <c r="F67" s="15">
-        <v>-1260867</v>
+        <v>-2695518</v>
       </c>
       <c r="G67" s="15">
-        <v>-2695518</v>
+        <v>-1657062</v>
       </c>
       <c r="H67" s="15">
-        <v>-1657062</v>
+        <v>-2116361</v>
       </c>
       <c r="I67" s="15">
-        <v>-2116361</v>
+        <v>-2195527</v>
       </c>
       <c r="J67" s="15">
-        <v>-2195527</v>
+        <v>-3133663</v>
       </c>
       <c r="K67" s="15">
-        <v>-3133663</v>
+        <v>-3056079</v>
       </c>
       <c r="L67" s="15">
-        <v>-3056079</v>
+        <v>-3379166</v>
       </c>
       <c r="M67" s="15">
-        <v>-3379166</v>
+        <v>-4126845</v>
       </c>
       <c r="N67" s="15">
-        <v>-4126845</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4451052</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>42</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -2607,37 +2607,37 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>-6470</v>
+        <v>-7416</v>
       </c>
       <c r="F69" s="11">
-        <v>-7416</v>
+        <v>-10421</v>
       </c>
       <c r="G69" s="11">
-        <v>-10421</v>
+        <v>-14029</v>
       </c>
       <c r="H69" s="11">
-        <v>-14029</v>
+        <v>432</v>
       </c>
       <c r="I69" s="11">
-        <v>432</v>
+        <v>-7808</v>
       </c>
       <c r="J69" s="11">
-        <v>-7808</v>
+        <v>-15057</v>
       </c>
       <c r="K69" s="11">
-        <v>-15057</v>
+        <v>-11192</v>
       </c>
       <c r="L69" s="11">
-        <v>-11192</v>
+        <v>-11140</v>
       </c>
       <c r="M69" s="11">
-        <v>-11140</v>
+        <v>-32140</v>
       </c>
       <c r="N69" s="11">
-        <v>-32140</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-24923</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>18</v>
       </c>
@@ -2646,37 +2646,37 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
-        <v>-9175</v>
+        <v>-15408</v>
       </c>
       <c r="F70" s="13">
-        <v>-15408</v>
+        <v>-8730</v>
       </c>
       <c r="G70" s="13">
-        <v>-8730</v>
+        <v>-11506</v>
       </c>
       <c r="H70" s="13">
-        <v>-11506</v>
+        <v>-7891</v>
       </c>
       <c r="I70" s="13">
-        <v>-7891</v>
+        <v>-7549</v>
       </c>
       <c r="J70" s="13">
-        <v>-7549</v>
+        <v>-32443</v>
       </c>
       <c r="K70" s="13">
-        <v>-32443</v>
+        <v>-7540</v>
       </c>
       <c r="L70" s="13">
-        <v>-7540</v>
+        <v>-12925</v>
       </c>
       <c r="M70" s="13">
-        <v>-12925</v>
+        <v>-22553</v>
       </c>
       <c r="N70" s="13">
-        <v>-22553</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-16442</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>19</v>
       </c>
@@ -2685,74 +2685,74 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>-1901</v>
+        <v>-3108</v>
       </c>
       <c r="F71" s="11">
-        <v>-3108</v>
+        <v>-5407</v>
       </c>
       <c r="G71" s="11">
-        <v>-5407</v>
+        <v>-2276</v>
       </c>
       <c r="H71" s="11">
-        <v>-2276</v>
+        <v>-1442</v>
       </c>
       <c r="I71" s="11">
-        <v>-1442</v>
+        <v>-2002</v>
       </c>
       <c r="J71" s="11">
-        <v>-2002</v>
+        <v>-4606</v>
       </c>
       <c r="K71" s="11">
-        <v>-4606</v>
+        <v>-2712</v>
       </c>
       <c r="L71" s="11">
-        <v>-2712</v>
+        <v>-10142</v>
       </c>
       <c r="M71" s="11">
-        <v>-10142</v>
+        <v>-672</v>
       </c>
       <c r="N71" s="11">
-        <v>-672</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
-        <v>-17546</v>
+        <v>-25932</v>
       </c>
       <c r="F72" s="15">
-        <v>-25932</v>
+        <v>-24558</v>
       </c>
       <c r="G72" s="15">
-        <v>-24558</v>
+        <v>-27811</v>
       </c>
       <c r="H72" s="15">
-        <v>-27811</v>
+        <v>-8901</v>
       </c>
       <c r="I72" s="15">
-        <v>-8901</v>
+        <v>-17359</v>
       </c>
       <c r="J72" s="15">
-        <v>-17359</v>
+        <v>-52106</v>
       </c>
       <c r="K72" s="15">
-        <v>-52106</v>
+        <v>-21444</v>
       </c>
       <c r="L72" s="15">
-        <v>-21444</v>
+        <v>-34207</v>
       </c>
       <c r="M72" s="15">
-        <v>-34207</v>
+        <v>-55365</v>
       </c>
       <c r="N72" s="15">
-        <v>-55365</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-39901</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>44</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
         <v>45</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>25</v>
       </c>
@@ -2817,8 +2817,8 @@
       <c r="E75" s="15">
         <v>0</v>
       </c>
-      <c r="F75" s="15">
-        <v>0</v>
+      <c r="F75" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="G75" s="15" t="s">
         <v>27</v>
@@ -2845,7 +2845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>28</v>
       </c>
@@ -2856,14 +2856,14 @@
       <c r="E76" s="19">
         <v>0</v>
       </c>
-      <c r="F76" s="19">
-        <v>0</v>
+      <c r="F76" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="G76" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H76" s="19" t="s">
-        <v>27</v>
+      <c r="H76" s="19">
+        <v>0</v>
       </c>
       <c r="I76" s="19">
         <v>0</v>
@@ -2884,44 +2884,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
-        <v>-1460536</v>
+        <v>-1286799</v>
       </c>
       <c r="F77" s="15">
-        <v>-1286799</v>
+        <v>-2720076</v>
       </c>
       <c r="G77" s="15">
-        <v>-2720076</v>
+        <v>-1684873</v>
       </c>
       <c r="H77" s="15">
-        <v>-1684873</v>
+        <v>-2125262</v>
       </c>
       <c r="I77" s="15">
-        <v>-2125262</v>
+        <v>-2212886</v>
       </c>
       <c r="J77" s="15">
-        <v>-2212886</v>
+        <v>-3185769</v>
       </c>
       <c r="K77" s="15">
-        <v>-3185769</v>
+        <v>-3077523</v>
       </c>
       <c r="L77" s="15">
-        <v>-3077523</v>
+        <v>-3413373</v>
       </c>
       <c r="M77" s="15">
-        <v>-3413373</v>
+        <v>-4182210</v>
       </c>
       <c r="N77" s="15">
-        <v>-4182210</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4490953</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2936,7 +2936,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2951,7 +2951,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2966,7 +2966,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>46</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3018,7 +3018,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>47</v>
       </c>
@@ -3035,7 +3035,7 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>16</v>
       </c>
@@ -3044,37 +3044,37 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>492930</v>
+        <v>540873</v>
       </c>
       <c r="F84" s="11">
-        <v>540873</v>
+        <v>460907</v>
       </c>
       <c r="G84" s="11">
-        <v>460907</v>
+        <v>659199</v>
       </c>
       <c r="H84" s="11">
-        <v>659199</v>
+        <v>492334</v>
       </c>
       <c r="I84" s="11">
-        <v>492334</v>
+        <v>651125</v>
       </c>
       <c r="J84" s="11">
-        <v>651125</v>
+        <v>451813</v>
       </c>
       <c r="K84" s="11">
-        <v>451813</v>
+        <v>610230</v>
       </c>
       <c r="L84" s="11">
-        <v>610230</v>
+        <v>1164637</v>
       </c>
       <c r="M84" s="11">
-        <v>1164637</v>
+        <v>-245818</v>
       </c>
       <c r="N84" s="11">
-        <v>-245818</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>499939</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>18</v>
       </c>
@@ -3083,37 +3083,37 @@
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
-        <v>805689</v>
+        <v>934173</v>
       </c>
       <c r="F85" s="13">
-        <v>934173</v>
+        <v>755705</v>
       </c>
       <c r="G85" s="13">
-        <v>755705</v>
+        <v>690758</v>
       </c>
       <c r="H85" s="13">
-        <v>690758</v>
+        <v>1129238</v>
       </c>
       <c r="I85" s="13">
-        <v>1129238</v>
+        <v>894784</v>
       </c>
       <c r="J85" s="13">
-        <v>894784</v>
+        <v>870166</v>
       </c>
       <c r="K85" s="13">
-        <v>870166</v>
+        <v>1109534</v>
       </c>
       <c r="L85" s="13">
-        <v>1109534</v>
+        <v>1352091</v>
       </c>
       <c r="M85" s="13">
-        <v>1352091</v>
+        <v>1519646</v>
       </c>
       <c r="N85" s="13">
-        <v>1519646</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1398219</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>19</v>
       </c>
@@ -3122,74 +3122,74 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>334738</v>
+        <v>338498</v>
       </c>
       <c r="F86" s="11">
-        <v>338498</v>
+        <v>444869</v>
       </c>
       <c r="G86" s="11">
-        <v>444869</v>
+        <v>329161</v>
       </c>
       <c r="H86" s="11">
-        <v>329161</v>
+        <v>520340</v>
       </c>
       <c r="I86" s="11">
-        <v>520340</v>
+        <v>574863</v>
       </c>
       <c r="J86" s="11">
-        <v>574863</v>
+        <v>642169</v>
       </c>
       <c r="K86" s="11">
-        <v>642169</v>
+        <v>805145</v>
       </c>
       <c r="L86" s="11">
-        <v>805145</v>
+        <v>711825</v>
       </c>
       <c r="M86" s="11">
-        <v>711825</v>
+        <v>1796984</v>
       </c>
       <c r="N86" s="11">
-        <v>1796984</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1265983</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>1633357</v>
+        <v>1813544</v>
       </c>
       <c r="F87" s="15">
-        <v>1813544</v>
+        <v>1661481</v>
       </c>
       <c r="G87" s="15">
-        <v>1661481</v>
+        <v>1679118</v>
       </c>
       <c r="H87" s="15">
-        <v>1679118</v>
+        <v>2141912</v>
       </c>
       <c r="I87" s="15">
-        <v>2141912</v>
+        <v>2120772</v>
       </c>
       <c r="J87" s="15">
-        <v>2120772</v>
+        <v>1964148</v>
       </c>
       <c r="K87" s="15">
-        <v>1964148</v>
+        <v>2524909</v>
       </c>
       <c r="L87" s="15">
-        <v>2524909</v>
+        <v>3228553</v>
       </c>
       <c r="M87" s="15">
-        <v>3228553</v>
+        <v>3070812</v>
       </c>
       <c r="N87" s="15">
-        <v>3070812</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3164141</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>49</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>16</v>
       </c>
@@ -3215,37 +3215,37 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>8705</v>
+        <v>10572</v>
       </c>
       <c r="F89" s="11">
-        <v>10572</v>
+        <v>8902</v>
       </c>
       <c r="G89" s="11">
-        <v>8902</v>
+        <v>8441</v>
       </c>
       <c r="H89" s="11">
-        <v>8441</v>
+        <v>10335</v>
       </c>
       <c r="I89" s="11">
-        <v>10335</v>
+        <v>12026</v>
       </c>
       <c r="J89" s="11">
-        <v>12026</v>
+        <v>12998</v>
       </c>
       <c r="K89" s="11">
-        <v>12998</v>
+        <v>9192</v>
       </c>
       <c r="L89" s="11">
-        <v>9192</v>
+        <v>5491</v>
       </c>
       <c r="M89" s="11">
-        <v>5491</v>
+        <v>26550</v>
       </c>
       <c r="N89" s="11">
-        <v>26550</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14017</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>18</v>
       </c>
@@ -3254,37 +3254,37 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>6991</v>
+        <v>16526</v>
       </c>
       <c r="F90" s="13">
-        <v>16526</v>
+        <v>3580</v>
       </c>
       <c r="G90" s="13">
-        <v>3580</v>
+        <v>14337</v>
       </c>
       <c r="H90" s="13">
-        <v>14337</v>
+        <v>2185</v>
       </c>
       <c r="I90" s="13">
-        <v>2185</v>
+        <v>5524</v>
       </c>
       <c r="J90" s="13">
-        <v>5524</v>
+        <v>19746</v>
       </c>
       <c r="K90" s="13">
-        <v>19746</v>
+        <v>5481</v>
       </c>
       <c r="L90" s="13">
-        <v>5481</v>
+        <v>-2555</v>
       </c>
       <c r="M90" s="13">
-        <v>-2555</v>
+        <v>28942</v>
       </c>
       <c r="N90" s="13">
-        <v>28942</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6112</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>19</v>
       </c>
@@ -3293,74 +3293,74 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>2395</v>
+        <v>4460</v>
       </c>
       <c r="F91" s="11">
-        <v>4460</v>
+        <v>1099</v>
       </c>
       <c r="G91" s="11">
-        <v>1099</v>
+        <v>2942</v>
       </c>
       <c r="H91" s="11">
-        <v>2942</v>
+        <v>776</v>
       </c>
       <c r="I91" s="11">
-        <v>776</v>
+        <v>2001</v>
       </c>
       <c r="J91" s="11">
-        <v>2001</v>
+        <v>4058</v>
       </c>
       <c r="K91" s="11">
-        <v>4058</v>
+        <v>2550</v>
       </c>
       <c r="L91" s="11">
-        <v>2550</v>
+        <v>-850</v>
       </c>
       <c r="M91" s="11">
-        <v>-850</v>
+        <v>11859</v>
       </c>
       <c r="N91" s="11">
-        <v>11859</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>18091</v>
+        <v>31558</v>
       </c>
       <c r="F92" s="15">
-        <v>31558</v>
+        <v>13581</v>
       </c>
       <c r="G92" s="15">
-        <v>13581</v>
+        <v>25720</v>
       </c>
       <c r="H92" s="15">
-        <v>25720</v>
+        <v>13296</v>
       </c>
       <c r="I92" s="15">
-        <v>13296</v>
+        <v>19551</v>
       </c>
       <c r="J92" s="15">
-        <v>19551</v>
+        <v>36802</v>
       </c>
       <c r="K92" s="15">
-        <v>36802</v>
+        <v>17223</v>
       </c>
       <c r="L92" s="15">
-        <v>17223</v>
+        <v>2086</v>
       </c>
       <c r="M92" s="15">
-        <v>2086</v>
+        <v>67351</v>
       </c>
       <c r="N92" s="15">
-        <v>67351</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21593</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="16" t="s">
         <v>51</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="M93" s="17"/>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="18" t="s">
         <v>52</v>
       </c>
@@ -3414,41 +3414,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>1651448</v>
+        <v>1845102</v>
       </c>
       <c r="F95" s="15">
-        <v>1845102</v>
+        <v>1675062</v>
       </c>
       <c r="G95" s="15">
-        <v>1675062</v>
+        <v>1704838</v>
       </c>
       <c r="H95" s="15">
-        <v>1704838</v>
+        <v>2155208</v>
       </c>
       <c r="I95" s="15">
-        <v>2155208</v>
+        <v>2140323</v>
       </c>
       <c r="J95" s="15">
-        <v>2140323</v>
+        <v>2000950</v>
       </c>
       <c r="K95" s="15">
-        <v>2000950</v>
+        <v>2542132</v>
       </c>
       <c r="L95" s="15">
-        <v>2542132</v>
+        <v>3230639</v>
       </c>
       <c r="M95" s="15">
-        <v>3230639</v>
+        <v>3138163</v>
       </c>
       <c r="N95" s="15">
-        <v>3138163</v>
+        <v>3185734</v>
       </c>
     </row>
   </sheetData>
